--- a/LynkitSupplyChainFramework/TestData/Data.xlsx
+++ b/LynkitSupplyChainFramework/TestData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B86D46-631A-49EC-B163-7F7FCF6F84CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE90D414-8D9D-4155-9CD1-E45F192F5B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>btmaster@gmail.com</t>
   </si>
@@ -37,18 +37,6 @@
     <t>test123</t>
   </si>
   <si>
-    <t>10/21/2019</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>testdriver</t>
-  </si>
-  <si>
-    <t>9898989898</t>
-  </si>
-  <si>
     <t>10/06/2020</t>
   </si>
   <si>
@@ -59,6 +47,33 @@
   </si>
   <si>
     <t>FlightDate</t>
+  </si>
+  <si>
+    <t>test kavinder</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>test kavi1</t>
+  </si>
+  <si>
+    <t>test kavi2</t>
+  </si>
+  <si>
+    <t>test kavi3</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>test kavi4</t>
+  </si>
+  <si>
+    <t>06/21/2019</t>
+  </si>
+  <si>
+    <t>170</t>
   </si>
 </sst>
 </file>
@@ -489,9 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -504,52 +517,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D89C067-BF80-4EE6-B736-7BA693457C05}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -573,13 +586,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -590,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
